--- a/프레임워크를 위한 JS_커리큘럼.xlsx
+++ b/프레임워크를 위한 JS_커리큘럼.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민철\Desktop\develup-js강의\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6050A02-D831-4CCF-9AB4-F6D5C1D435B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F420C4D7-3714-4BC8-BFF7-82B232EC9130}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D9F98BE9-D811-4FDE-9F13-0FF921D53D5C}"/>
   </bookViews>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 조금 더 쉽게 문자열 사용하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>템플릿 리터럴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,14 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 배열 가지고 놀기 - 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 배열 가지고 놀기 - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4. Destructuring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,6 +290,18 @@
   </si>
   <si>
     <t>생성자 함수란, new로 객체 찍어내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 조금 더 쉽게 문자열 사용하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 배열 가지고 놀기 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 배열 가지고 놀기 - 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +705,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -816,10 +816,10 @@
       <c r="A8" s="7"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -828,19 +828,19 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="C9" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -914,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4" t="s">
@@ -950,27 +950,21 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>26</v>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
+      <c r="C20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -978,76 +972,79 @@
         <v>4</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
+      <c r="C21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="2"/>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="C23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
-      <c r="C24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
-      <c r="C25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="C28" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/프레임워크를 위한 JS_커리큘럼.xlsx
+++ b/프레임워크를 위한 JS_커리큘럼.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민철\Desktop\develup-js강의\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민철\Desktop\develup-js강의\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F420C4D7-3714-4BC8-BFF7-82B232EC9130}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABE7D3C-D488-4143-92CA-AD9C3EA45578}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D9F98BE9-D811-4FDE-9F13-0FF921D53D5C}"/>
   </bookViews>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4. Destructuring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>종강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5. 배열에서 배열이 필요 없을 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>destructuring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,6 +294,14 @@
   </si>
   <si>
     <t>5. 배열 가지고 놀기 - 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Destructuring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 배열에서 배열이 필요 없을 때</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +705,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -816,10 +816,10 @@
       <c r="A8" s="7"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -828,19 +828,19 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="C9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -951,7 +951,7 @@
       <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>51</v>
@@ -961,7 +961,7 @@
       <c r="A20" s="7"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>55</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>52</v>
@@ -989,62 +989,62 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="C23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>26</v>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
-      <c r="C24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>40</v>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>60</v>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="C28" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/프레임워크를 위한 JS_커리큘럼.xlsx
+++ b/프레임워크를 위한 JS_커리큘럼.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민철\Desktop\develup-js강의\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABE7D3C-D488-4143-92CA-AD9C3EA45578}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672CE8B7-80B1-40C4-97DF-01C9E29AF59A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D9F98BE9-D811-4FDE-9F13-0FF921D53D5C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>섹션</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4. 새로운 자료형, Symbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5. 우아한 비동기처리 - Promise async/awit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,14 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1주차-3 강에서 미처 설명 못한 Symbol : 무엇이고 왜 쓰이는지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>es6의 새 자료형 Symbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Promise async/await</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,6 +290,14 @@
   </si>
   <si>
     <t>2. 배열에서 배열이 필요 없을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 예외처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try catch finally</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +701,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -729,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -737,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -779,7 +775,7 @@
       <c r="A5" s="7"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -806,7 +802,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -816,10 +812,10 @@
       <c r="A8" s="7"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -828,19 +824,19 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="C9" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="C10" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -851,11 +847,11 @@
         <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -865,7 +861,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -914,11 +910,11 @@
         <v>13</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -951,20 +947,20 @@
       <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -973,36 +969,36 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="2"/>
       <c r="C22" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1020,22 +1016,20 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>25</v>
@@ -1044,7 +1038,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="C28" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
